--- a/WrittenWorks/CSVResultFiles/MasterResultsFile/JavaPSSResults.xlsx
+++ b/WrittenWorks/CSVResultFiles/MasterResultsFile/JavaPSSResults.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arcti\IdeaProjects\ProbStatsProject2\WrittenWorks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arcti\IdeaProjects\ProbStatsProject2\WrittenWorks\CSVResultFiles\MasterResultsFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F8D212-C8C8-480E-B391-C2AFEBE4094B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DF39A1-1CFB-4B0E-82F8-CEAB53BB95C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{2BB77A20-D7BC-42CD-A0FD-9ED501780D95}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2BB77A20-D7BC-42CD-A0FD-9ED501780D95}"/>
   </bookViews>
   <sheets>
     <sheet name="PolynomialWindow4" sheetId="1" r:id="rId1"/>
@@ -9162,8 +9162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F456089C-0A26-4E83-B2D4-B7DE8DFFDA87}">
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView topLeftCell="A192" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11389,7 +11389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD76B65A-FC25-4DC6-ADAD-958D3793B0DB}">
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView topLeftCell="A194" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N227" sqref="N227"/>
     </sheetView>
   </sheetViews>
@@ -13616,8 +13616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E9A7B4-9000-4FA3-9009-DAAE03A78BAC}">
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
